--- a/AllTags.xlsx
+++ b/AllTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/TARGEST.Final-1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B52B3E-C8B3-5242-BCF8-68DB66B827C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E55DB4-41B4-C640-B02B-DA96C83BFBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="5200" windowWidth="25640" windowHeight="14440" xr2:uid="{A722A812-A815-F34E-976C-611D9B3A41C2}"/>
+    <workbookView xWindow="5720" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{71EFE02F-2E56-AB42-A98E-E33E91DB1956}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="193">
   <si>
     <t>[PUMP:HRS:100]</t>
   </si>
@@ -615,135 +615,6 @@
   </si>
   <si>
     <t>[PUMP:UNIT:220]</t>
-  </si>
-  <si>
-    <t>PUMP:UT:220</t>
-  </si>
-  <si>
-    <t>PUMP:INS:220</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:RISK:10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:RISK:20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:RISK:30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:RISK:40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:RISK:50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:100 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:1000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3330 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:4000 </t>
-  </si>
-  <si>
-    <t>PUMP:HRS:103</t>
-  </si>
-  <si>
-    <t>PUMP:PRS:103</t>
-  </si>
-  <si>
-    <t>ACE:SRS:110</t>
-  </si>
-  <si>
-    <t>ACE:SRS:120</t>
-  </si>
-  <si>
-    <t>PUMP:TBV:1</t>
-  </si>
-  <si>
-    <t>PUMP:PRS:6</t>
-  </si>
-  <si>
-    <t>PUMP:TBD:1</t>
-  </si>
-  <si>
-    <t>PUMP:DER:2</t>
-  </si>
-  <si>
-    <t>ACE:SRS:1000</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:100</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:110</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:120</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:130</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:140</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:150</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:160</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:170</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:180</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:190</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:200</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:210</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:220</t>
-  </si>
-  <si>
-    <t>Orphan Tags</t>
-  </si>
-  <si>
-    <t>Childless Tags</t>
   </si>
 </sst>
 </file>
@@ -759,36 +630,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF964B00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -803,12 +650,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,8 +965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E09E373-BA92-5F40-9EA3-02FDF9BE63A5}">
-  <dimension ref="A1:L414"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810209E-B6DC-6740-9629-1DE5E1A8D928}">
+  <dimension ref="A2:B412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,773 +974,179 @@
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>203</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>205</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>211</v>
-      </c>
-      <c r="K18">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H19">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19">
-        <v>15</v>
-      </c>
-      <c r="L19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H20">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20">
-        <v>16</v>
-      </c>
-      <c r="L20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="H21">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="H22">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="H23">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>216</v>
-      </c>
-      <c r="K23">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H25">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K25">
-        <v>21</v>
-      </c>
-      <c r="L25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="H27">
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>220</v>
-      </c>
-      <c r="K27">
-        <v>23</v>
-      </c>
-      <c r="L27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
-        <v>221</v>
-      </c>
-      <c r="K28">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H29">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29">
-        <v>25</v>
-      </c>
-      <c r="L29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="H30">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>223</v>
-      </c>
-      <c r="K30">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="H31">
-        <v>27</v>
-      </c>
-      <c r="I31" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31">
-        <v>27</v>
-      </c>
-      <c r="L31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H32">
-        <v>28</v>
-      </c>
-      <c r="I32" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H33">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K33">
-        <v>29</v>
-      </c>
-      <c r="L33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="H34">
-        <v>30</v>
-      </c>
-      <c r="I34" t="s">
-        <v>227</v>
-      </c>
-      <c r="K34">
-        <v>30</v>
-      </c>
-      <c r="L34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="H35">
-        <v>31</v>
-      </c>
-      <c r="I35" t="s">
-        <v>228</v>
-      </c>
-      <c r="K35">
-        <v>31</v>
-      </c>
-      <c r="L35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H36">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K36">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H37">
-        <v>33</v>
-      </c>
-      <c r="I37" t="s">
-        <v>230</v>
-      </c>
-      <c r="K37">
-        <v>33</v>
-      </c>
-      <c r="L37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="H38">
-        <v>34</v>
-      </c>
-      <c r="I38" t="s">
-        <v>231</v>
-      </c>
-      <c r="K38">
-        <v>34</v>
-      </c>
-      <c r="L38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="H39">
-        <v>35</v>
-      </c>
-      <c r="I39" t="s">
-        <v>232</v>
-      </c>
-      <c r="K39">
-        <v>35</v>
-      </c>
-      <c r="L39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="H40">
-        <v>36</v>
-      </c>
-      <c r="I40" t="s">
-        <v>233</v>
-      </c>
-      <c r="K40">
-        <v>36</v>
-      </c>
-      <c r="L40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K41">
-        <v>37</v>
-      </c>
-      <c r="L41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K42">
-        <v>38</v>
-      </c>
-      <c r="L42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
-      <c r="K43">
-        <v>39</v>
-      </c>
-      <c r="L43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="K44">
-        <v>40</v>
-      </c>
-      <c r="L44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K45">
-        <v>41</v>
-      </c>
-      <c r="L45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K46">
-        <v>42</v>
-      </c>
-      <c r="L46" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="K47">
-        <v>43</v>
-      </c>
-      <c r="L47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="K48">
-        <v>44</v>
-      </c>
-      <c r="L48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K49">
-        <v>45</v>
-      </c>
-      <c r="L49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K50">
-        <v>46</v>
-      </c>
-      <c r="L50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="K51">
-        <v>47</v>
-      </c>
-      <c r="L51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="K52">
-        <v>48</v>
-      </c>
-      <c r="L52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K53">
-        <v>49</v>
-      </c>
-      <c r="L53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K54">
-        <v>50</v>
-      </c>
-      <c r="L54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>34</v>
       </c>
@@ -2890,16 +2139,6 @@
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B413" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B414" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/AllTags.xlsx
+++ b/AllTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/TARGEST.Final-1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E55DB4-41B4-C640-B02B-DA96C83BFBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C1EAB50-EE3E-BD4D-9035-BD58F1A43B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{71EFE02F-2E56-AB42-A98E-E33E91DB1956}"/>
+    <workbookView xWindow="6460" yWindow="5700" windowWidth="28040" windowHeight="17440" xr2:uid="{83B6F51F-0169-3C47-8E8D-CA399BEF7285}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
   <si>
     <t>[PUMP:HRS:100]</t>
   </si>
@@ -615,6 +615,135 @@
   </si>
   <si>
     <t>[PUMP:UNIT:220]</t>
+  </si>
+  <si>
+    <t>PUMP:UT:220</t>
+  </si>
+  <si>
+    <t>PUMP:INS:220</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
+  </si>
+  <si>
+    <t>PUMP:HRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:103</t>
+  </si>
+  <si>
+    <t>ACE:SRS:110</t>
+  </si>
+  <si>
+    <t>ACE:SRS:120</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:TBD:1</t>
+  </si>
+  <si>
+    <t>PUMP:DER:2</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:100</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:110</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:120</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:130</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:140</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:150</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:160</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:170</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:180</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:190</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:200</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:210</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:220</t>
+  </si>
+  <si>
+    <t>Orphan Tags</t>
+  </si>
+  <si>
+    <t>Childless Tags</t>
   </si>
 </sst>
 </file>
@@ -630,12 +759,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF964B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -650,8 +803,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,188 +1122,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810209E-B6DC-6740-9629-1DE5E1A8D928}">
-  <dimension ref="A2:B412"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F36B44-C5D7-0841-85BC-819A4427E746}">
+  <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>41</v>
+      </c>
+      <c r="L45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>42</v>
+      </c>
+      <c r="L46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>46</v>
+      </c>
+      <c r="L50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>49</v>
+      </c>
+      <c r="L53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>34</v>
       </c>
@@ -2139,6 +2892,16 @@
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/AllTags.xlsx
+++ b/AllTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F5989F-35A6-4855-93A3-3DA883D32BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5BD42-2F51-4576-8E0E-9C4DB0C9F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{9FA27609-7E1A-4DB7-BE83-7D9EC8D6298C}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{5C129DF8-9EDA-4FC9-9865-AD7139B1D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CECF9F-E4A4-4F06-AA58-746BE0D5E2C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F2BE7-FD64-4F14-9377-6D9F4ABF11AC}">
   <dimension ref="A1:R418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/AllTags.xlsx
+++ b/AllTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5BD42-2F51-4576-8E0E-9C4DB0C9F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D434CCFB-DE4D-4BA6-B713-33D161511F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{5C129DF8-9EDA-4FC9-9865-AD7139B1D78F}"/>
+    <workbookView minimized="1" xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{354CD1AA-E8D1-455C-9263-1A27CF8B7A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="241">
   <si>
     <t>[PUMP:HRS:100]</t>
   </si>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F2BE7-FD64-4F14-9377-6D9F4ABF11AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A486E13C-3559-4257-9F66-AD8A6769B05E}">
   <dimension ref="A1:R418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1796,6 +1796,12 @@
       <c r="B40" t="s">
         <v>22</v>
       </c>
+      <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s">
+        <v>199</v>
+      </c>
       <c r="K40">
         <v>38</v>
       </c>
@@ -1804,6 +1810,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s">
+        <v>200</v>
+      </c>
       <c r="K41">
         <v>39</v>
       </c>
@@ -1812,6 +1824,12 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>201</v>
+      </c>
       <c r="K42">
         <v>40</v>
       </c>
@@ -1823,6 +1841,12 @@
       <c r="A43" t="s">
         <v>23</v>
       </c>
+      <c r="H43">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>202</v>
+      </c>
       <c r="K43">
         <v>41</v>
       </c>
@@ -1834,6 +1858,12 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="H44">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>203</v>
+      </c>
       <c r="K44">
         <v>42</v>
       </c>
@@ -1842,6 +1872,12 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>204</v>
+      </c>
       <c r="K45">
         <v>43</v>
       </c>
@@ -1850,6 +1886,12 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>205</v>
+      </c>
       <c r="K46">
         <v>44</v>
       </c>
@@ -1861,6 +1903,12 @@
       <c r="A47" t="s">
         <v>25</v>
       </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>206</v>
+      </c>
       <c r="K47">
         <v>45</v>
       </c>
@@ -1872,6 +1920,12 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
+      <c r="H48">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
       <c r="K48">
         <v>46</v>
       </c>
@@ -1880,6 +1934,12 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
       <c r="K49">
         <v>47</v>
       </c>
@@ -1888,6 +1948,12 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
       <c r="K50">
         <v>48</v>
       </c>
@@ -1899,6 +1965,12 @@
       <c r="A51" t="s">
         <v>27</v>
       </c>
+      <c r="H51">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
       <c r="K51">
         <v>49</v>
       </c>
@@ -1910,6 +1982,12 @@
       <c r="B52" t="s">
         <v>28</v>
       </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
+      </c>
       <c r="K52">
         <v>50</v>
       </c>
@@ -1918,11 +1996,25 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s">
+        <v>212</v>
+      </c>
       <c r="K53">
         <v>51</v>
       </c>
       <c r="L53" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
